--- a/Code/Results/Cases/Case_4_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008031659287967</v>
+        <v>1.034118942127875</v>
       </c>
       <c r="D2">
-        <v>1.02706389248165</v>
+        <v>1.042667095732968</v>
       </c>
       <c r="E2">
-        <v>1.016153958308458</v>
+        <v>1.037762998858533</v>
       </c>
       <c r="F2">
-        <v>1.027549459150574</v>
+        <v>1.049654476318514</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04540715306078</v>
+        <v>1.038031315657763</v>
       </c>
       <c r="J2">
-        <v>1.029974770136463</v>
+        <v>1.039239935007143</v>
       </c>
       <c r="K2">
-        <v>1.038158633211192</v>
+        <v>1.045443136622966</v>
       </c>
       <c r="L2">
-        <v>1.02739273827857</v>
+        <v>1.040552956283314</v>
       </c>
       <c r="M2">
-        <v>1.038637878180988</v>
+        <v>1.052410932474179</v>
       </c>
       <c r="N2">
-        <v>1.013789915469889</v>
+        <v>1.017033415535137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012011545302869</v>
+        <v>1.034967773080063</v>
       </c>
       <c r="D3">
-        <v>1.030138442123404</v>
+        <v>1.043350161576656</v>
       </c>
       <c r="E3">
-        <v>1.019640499345758</v>
+        <v>1.038559762122487</v>
       </c>
       <c r="F3">
-        <v>1.031301312286723</v>
+        <v>1.0505145301547</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046532239715487</v>
+        <v>1.038225930447641</v>
       </c>
       <c r="J3">
-        <v>1.032180034477496</v>
+        <v>1.039732273808831</v>
       </c>
       <c r="K3">
-        <v>1.040399688812869</v>
+        <v>1.045937415447781</v>
       </c>
       <c r="L3">
-        <v>1.030028095635988</v>
+        <v>1.041159628757937</v>
       </c>
       <c r="M3">
-        <v>1.041548759169252</v>
+        <v>1.053083152467352</v>
       </c>
       <c r="N3">
-        <v>1.014535726646795</v>
+        <v>1.017198539542205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014539516279546</v>
+        <v>1.035517665633477</v>
       </c>
       <c r="D4">
-        <v>1.032094338314383</v>
+        <v>1.043792716427896</v>
       </c>
       <c r="E4">
-        <v>1.021860434134649</v>
+        <v>1.039076298368313</v>
       </c>
       <c r="F4">
-        <v>1.033689902546739</v>
+        <v>1.051072079674523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047238769212391</v>
+        <v>1.038350983187015</v>
       </c>
       <c r="J4">
-        <v>1.033578472932705</v>
+        <v>1.040050834643711</v>
       </c>
       <c r="K4">
-        <v>1.041820249492152</v>
+        <v>1.046257132576244</v>
       </c>
       <c r="L4">
-        <v>1.031701992270196</v>
+        <v>1.041552508235686</v>
       </c>
       <c r="M4">
-        <v>1.043398037120838</v>
+        <v>1.053518516804482</v>
       </c>
       <c r="N4">
-        <v>1.015008489502344</v>
+        <v>1.017305331768859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015591311212588</v>
+        <v>1.035748992651512</v>
       </c>
       <c r="D5">
-        <v>1.032908789727645</v>
+        <v>1.043978900157349</v>
       </c>
       <c r="E5">
-        <v>1.0227853156427</v>
+        <v>1.039293682349011</v>
       </c>
       <c r="F5">
-        <v>1.034684987358477</v>
+        <v>1.051306719933628</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047530753051424</v>
+        <v>1.038403344947149</v>
       </c>
       <c r="J5">
-        <v>1.034159728428823</v>
+        <v>1.040184752745681</v>
       </c>
       <c r="K5">
-        <v>1.042410556062576</v>
+        <v>1.046391512996601</v>
       </c>
       <c r="L5">
-        <v>1.032398398028225</v>
+        <v>1.04171775037355</v>
       </c>
       <c r="M5">
-        <v>1.044167498432915</v>
+        <v>1.053701636496177</v>
       </c>
       <c r="N5">
-        <v>1.015204944765334</v>
+        <v>1.017350213823189</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01576727931427</v>
+        <v>1.035787842355229</v>
       </c>
       <c r="D6">
-        <v>1.033045088188736</v>
+        <v>1.04401016901294</v>
       </c>
       <c r="E6">
-        <v>1.022940123355207</v>
+        <v>1.039330195636981</v>
       </c>
       <c r="F6">
-        <v>1.034851542159517</v>
+        <v>1.051346131462922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047579485644325</v>
+        <v>1.038412124358576</v>
       </c>
       <c r="J6">
-        <v>1.034256938989714</v>
+        <v>1.040207237863293</v>
       </c>
       <c r="K6">
-        <v>1.042509271708456</v>
+        <v>1.046414074342293</v>
       </c>
       <c r="L6">
-        <v>1.032514905357002</v>
+        <v>1.041745499647319</v>
       </c>
       <c r="M6">
-        <v>1.044296233102586</v>
+        <v>1.053732388478144</v>
       </c>
       <c r="N6">
-        <v>1.015237797581956</v>
+        <v>1.017357748918613</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014553613036267</v>
+        <v>1.035520756040347</v>
       </c>
       <c r="D7">
-        <v>1.03210525144214</v>
+        <v>1.043795203700942</v>
       </c>
       <c r="E7">
-        <v>1.021872825031964</v>
+        <v>1.039079202153779</v>
       </c>
       <c r="F7">
-        <v>1.033703234222141</v>
+        <v>1.051075213983138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047242690392694</v>
+        <v>1.038351683675043</v>
       </c>
       <c r="J7">
-        <v>1.033586265587762</v>
+        <v>1.040052624084608</v>
       </c>
       <c r="K7">
-        <v>1.041828164067891</v>
+        <v>1.046258928288231</v>
       </c>
       <c r="L7">
-        <v>1.031711326095984</v>
+        <v>1.041554715913945</v>
       </c>
       <c r="M7">
-        <v>1.043408349744174</v>
+        <v>1.053520963297178</v>
       </c>
       <c r="N7">
-        <v>1.015011123486326</v>
+        <v>1.017305931538285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009386689163469</v>
+        <v>1.03440567462568</v>
       </c>
       <c r="D8">
-        <v>1.028110033419268</v>
+        <v>1.042897822887037</v>
       </c>
       <c r="E8">
-        <v>1.017339884577293</v>
+        <v>1.038032065337998</v>
       </c>
       <c r="F8">
-        <v>1.028825688390124</v>
+        <v>1.049944919665201</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045791890179844</v>
+        <v>1.038097267615288</v>
       </c>
       <c r="J8">
-        <v>1.030726063732309</v>
+        <v>1.039406325647434</v>
       </c>
       <c r="K8">
-        <v>1.038922236852076</v>
+        <v>1.045610203360618</v>
       </c>
       <c r="L8">
-        <v>1.028289989056913</v>
+        <v>1.040757916586355</v>
       </c>
       <c r="M8">
-        <v>1.039628856232053</v>
+        <v>1.052638030038249</v>
       </c>
       <c r="N8">
-        <v>1.014044036498148</v>
+        <v>1.017089230881571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9999030319160839</v>
+        <v>1.03244574548607</v>
       </c>
       <c r="D9">
-        <v>1.020802561304216</v>
+        <v>1.041320931353256</v>
       </c>
       <c r="E9">
-        <v>1.009063573221828</v>
+        <v>1.036194439151291</v>
       </c>
       <c r="F9">
-        <v>1.019917917848364</v>
+        <v>1.047961222573483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043066165295036</v>
+        <v>1.037642274927668</v>
       </c>
       <c r="J9">
-        <v>1.025459214840978</v>
+        <v>1.038267401740821</v>
       </c>
       <c r="K9">
-        <v>1.033566912560483</v>
+        <v>1.044466248711484</v>
       </c>
       <c r="L9">
-        <v>1.022011292113251</v>
+        <v>1.039356382773918</v>
       </c>
       <c r="M9">
-        <v>1.032695899811122</v>
+        <v>1.051085268730924</v>
       </c>
       <c r="N9">
-        <v>1.012261891986579</v>
+        <v>1.016706982974779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9933011499565942</v>
+        <v>1.031142571043527</v>
       </c>
       <c r="D10">
-        <v>1.015735723588045</v>
+        <v>1.040272737300312</v>
       </c>
       <c r="E10">
-        <v>1.003333881321182</v>
+        <v>1.034974546255615</v>
       </c>
       <c r="F10">
-        <v>1.013749358601974</v>
+        <v>1.046644265080617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041128237284471</v>
+        <v>1.037334496761056</v>
       </c>
       <c r="J10">
-        <v>1.021783092479574</v>
+        <v>1.037508148713909</v>
       </c>
       <c r="K10">
-        <v>1.029826560467179</v>
+        <v>1.04370313902838</v>
       </c>
       <c r="L10">
-        <v>1.017643201285561</v>
+        <v>1.038423812660725</v>
       </c>
       <c r="M10">
-        <v>1.027874723719912</v>
+        <v>1.050052259110918</v>
       </c>
       <c r="N10">
-        <v>1.011017287494054</v>
+        <v>1.016451913689437</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9903702751342557</v>
+        <v>1.030579118572025</v>
       </c>
       <c r="D11">
-        <v>1.013491762721134</v>
+        <v>1.039819606944622</v>
       </c>
       <c r="E11">
-        <v>1.000798245247379</v>
+        <v>1.034447572937978</v>
       </c>
       <c r="F11">
-        <v>1.011019061234861</v>
+        <v>1.046075337624571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040258773071029</v>
+        <v>1.037200178621017</v>
       </c>
       <c r="J11">
-        <v>1.020149222614164</v>
+        <v>1.037179406007642</v>
       </c>
       <c r="K11">
-        <v>1.028163651765171</v>
+        <v>1.043372608099101</v>
       </c>
       <c r="L11">
-        <v>1.015705123516582</v>
+        <v>1.038020441155865</v>
       </c>
       <c r="M11">
-        <v>1.025736123601558</v>
+        <v>1.049605487738656</v>
       </c>
       <c r="N11">
-        <v>1.010463988152232</v>
+        <v>1.01634141533729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9892702301568657</v>
+        <v>1.030369953580694</v>
       </c>
       <c r="D12">
-        <v>1.012650413039514</v>
+        <v>1.039651407783764</v>
       </c>
       <c r="E12">
-        <v>0.9998477978926464</v>
+        <v>1.034252020955851</v>
       </c>
       <c r="F12">
-        <v>1.009995577920702</v>
+        <v>1.045864213421534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039931106437395</v>
+        <v>1.037150130087729</v>
       </c>
       <c r="J12">
-        <v>1.019535738801795</v>
+        <v>1.037057300383811</v>
       </c>
       <c r="K12">
-        <v>1.027539199037044</v>
+        <v>1.043249820563714</v>
       </c>
       <c r="L12">
-        <v>1.014977914435633</v>
+        <v>1.03787067820606</v>
       </c>
       <c r="M12">
-        <v>1.024933751642629</v>
+        <v>1.049439617969828</v>
       </c>
       <c r="N12">
-        <v>1.01025621993195</v>
+        <v>1.016300364029039</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9895067178496598</v>
+        <v>1.030414814439139</v>
       </c>
       <c r="D13">
-        <v>1.012831245856031</v>
+        <v>1.039687481904488</v>
       </c>
       <c r="E13">
-        <v>1.000052067720357</v>
+        <v>1.03429395892115</v>
       </c>
       <c r="F13">
-        <v>1.010215547825965</v>
+        <v>1.04590949116335</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040001607678015</v>
+        <v>1.037160872752417</v>
       </c>
       <c r="J13">
-        <v>1.019667635951409</v>
+        <v>1.03708349225154</v>
       </c>
       <c r="K13">
-        <v>1.02767345728877</v>
+        <v>1.043276159502794</v>
       </c>
       <c r="L13">
-        <v>1.015134239703766</v>
+        <v>1.03790279980342</v>
       </c>
       <c r="M13">
-        <v>1.025106230853574</v>
+        <v>1.049475193906769</v>
       </c>
       <c r="N13">
-        <v>1.010300890130558</v>
+        <v>1.016309169996946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9902795806022113</v>
+        <v>1.030561826342244</v>
       </c>
       <c r="D14">
-        <v>1.013422378474279</v>
+        <v>1.039805701221327</v>
       </c>
       <c r="E14">
-        <v>1.000719858728245</v>
+        <v>1.034431404676484</v>
       </c>
       <c r="F14">
-        <v>1.010934652641454</v>
+        <v>1.046057881925156</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040231785018354</v>
+        <v>1.037196044788288</v>
       </c>
       <c r="J14">
-        <v>1.020098647933487</v>
+        <v>1.037169312628911</v>
       </c>
       <c r="K14">
-        <v>1.028112174104542</v>
+        <v>1.043362458713661</v>
       </c>
       <c r="L14">
-        <v>1.015645163382244</v>
+        <v>1.03800806032469</v>
       </c>
       <c r="M14">
-        <v>1.025669964523587</v>
+        <v>1.049591775229993</v>
       </c>
       <c r="N14">
-        <v>1.010446860357461</v>
+        <v>1.016338022169595</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9907542412463474</v>
+        <v>1.030652422015943</v>
       </c>
       <c r="D15">
-        <v>1.013785545280451</v>
+        <v>1.039878555153814</v>
       </c>
       <c r="E15">
-        <v>1.001130155284683</v>
+        <v>1.034516114690638</v>
       </c>
       <c r="F15">
-        <v>1.011376467514756</v>
+        <v>1.046149337033772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040372976187188</v>
+        <v>1.037217694683831</v>
       </c>
       <c r="J15">
-        <v>1.02036332684735</v>
+        <v>1.037222189969627</v>
       </c>
       <c r="K15">
-        <v>1.028381576080701</v>
+        <v>1.043415628738398</v>
       </c>
       <c r="L15">
-        <v>1.015958980688287</v>
+        <v>1.038072923752418</v>
       </c>
       <c r="M15">
-        <v>1.026016228818042</v>
+        <v>1.049663615613376</v>
       </c>
       <c r="N15">
-        <v>1.010536496796558</v>
+        <v>1.016355797991867</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9934940957781878</v>
+        <v>1.031179983161396</v>
       </c>
       <c r="D16">
-        <v>1.015883566745626</v>
+        <v>1.040302825907776</v>
       </c>
       <c r="E16">
-        <v>1.00350097912608</v>
+        <v>1.035009546195955</v>
       </c>
       <c r="F16">
-        <v>1.013929274997773</v>
+        <v>1.046682050975472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041185288969996</v>
+        <v>1.03734338898797</v>
       </c>
       <c r="J16">
-        <v>1.021890617760697</v>
+        <v>1.037529966786237</v>
       </c>
       <c r="K16">
-        <v>1.029935987252618</v>
+        <v>1.043725073294478</v>
       </c>
       <c r="L16">
-        <v>1.017770815906366</v>
+        <v>1.038450592441141</v>
       </c>
       <c r="M16">
-        <v>1.0280155526163</v>
+        <v>1.050081921128703</v>
       </c>
       <c r="N16">
-        <v>1.011053697826837</v>
+        <v>1.016459246052019</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9951930301733377</v>
+        <v>1.03151113181228</v>
       </c>
       <c r="D17">
-        <v>1.017185988310691</v>
+        <v>1.040569160334534</v>
       </c>
       <c r="E17">
-        <v>1.004973236864709</v>
+        <v>1.035319398248218</v>
       </c>
       <c r="F17">
-        <v>1.015514423138328</v>
+        <v>1.047016564121236</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041686606719969</v>
+        <v>1.037421953559849</v>
       </c>
       <c r="J17">
-        <v>1.022837194733534</v>
+        <v>1.037723032963719</v>
       </c>
       <c r="K17">
-        <v>1.030899248710313</v>
+        <v>1.043919153995877</v>
       </c>
       <c r="L17">
-        <v>1.018894625523564</v>
+        <v>1.038687612193088</v>
       </c>
       <c r="M17">
-        <v>1.029255788759242</v>
+        <v>1.050344455775576</v>
       </c>
       <c r="N17">
-        <v>1.011374214514215</v>
+        <v>1.016524122780375</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.996177060038766</v>
+        <v>1.031704365260607</v>
       </c>
       <c r="D18">
-        <v>1.017940869237517</v>
+        <v>1.040724580423223</v>
       </c>
       <c r="E18">
-        <v>1.005826735257905</v>
+        <v>1.035500250034234</v>
       </c>
       <c r="F18">
-        <v>1.016433324418951</v>
+        <v>1.047211807582789</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041976101371765</v>
+        <v>1.037467677767238</v>
       </c>
       <c r="J18">
-        <v>1.02338527550151</v>
+        <v>1.0378356469369</v>
       </c>
       <c r="K18">
-        <v>1.031456942744652</v>
+        <v>1.044032348307292</v>
       </c>
       <c r="L18">
-        <v>1.019545643955533</v>
+        <v>1.03882590391982</v>
       </c>
       <c r="M18">
-        <v>1.029974300730733</v>
+        <v>1.050497638689632</v>
       </c>
       <c r="N18">
-        <v>1.011559785491268</v>
+        <v>1.016561959262155</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9965114291770895</v>
+        <v>1.031770266402547</v>
       </c>
       <c r="D19">
-        <v>1.01819745983535</v>
+        <v>1.040777586768959</v>
       </c>
       <c r="E19">
-        <v>1.006116878046217</v>
+        <v>1.035561936173676</v>
       </c>
       <c r="F19">
-        <v>1.016745693582527</v>
+        <v>1.047278402143695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042074321525499</v>
+        <v>1.037483251358136</v>
       </c>
       <c r="J19">
-        <v>1.023571479271595</v>
+        <v>1.037874045649278</v>
       </c>
       <c r="K19">
-        <v>1.031646404239727</v>
+        <v>1.044070942961091</v>
       </c>
       <c r="L19">
-        <v>1.019766873521952</v>
+        <v>1.038873064924069</v>
       </c>
       <c r="M19">
-        <v>1.030218474127361</v>
+        <v>1.050549878689146</v>
       </c>
       <c r="N19">
-        <v>1.011622828752097</v>
+        <v>1.016574859659751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9950114711591285</v>
+        <v>1.031475594405627</v>
       </c>
       <c r="D20">
-        <v>1.017046749586132</v>
+        <v>1.040540577739677</v>
       </c>
       <c r="E20">
-        <v>1.004815822766924</v>
+        <v>1.035286141596384</v>
       </c>
       <c r="F20">
-        <v>1.015344943156051</v>
+        <v>1.04698066081423</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041633122707506</v>
+        <v>1.037413534785252</v>
       </c>
       <c r="J20">
-        <v>1.022736055915024</v>
+        <v>1.037702318601431</v>
       </c>
       <c r="K20">
-        <v>1.030796332050943</v>
+        <v>1.043898331965034</v>
       </c>
       <c r="L20">
-        <v>1.018774517028684</v>
+        <v>1.038662177850124</v>
       </c>
       <c r="M20">
-        <v>1.029123232041412</v>
+        <v>1.05031628301663</v>
       </c>
       <c r="N20">
-        <v>1.01133996956933</v>
+        <v>1.016517162636927</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9900523106225302</v>
+        <v>1.030518531500792</v>
       </c>
       <c r="D21">
-        <v>1.013248523917726</v>
+        <v>1.03977088542819</v>
       </c>
       <c r="E21">
-        <v>1.000523451546621</v>
+        <v>1.034390925085086</v>
       </c>
       <c r="F21">
-        <v>1.010723155264733</v>
+        <v>1.046014178986457</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04016413478723</v>
+        <v>1.037185691823225</v>
       </c>
       <c r="J21">
-        <v>1.019971909854538</v>
+        <v>1.037144040545062</v>
       </c>
       <c r="K21">
-        <v>1.027983172169563</v>
+        <v>1.043337046112841</v>
       </c>
       <c r="L21">
-        <v>1.01549491375975</v>
+        <v>1.037977061858329</v>
       </c>
       <c r="M21">
-        <v>1.025504182684673</v>
+        <v>1.049557442686905</v>
       </c>
       <c r="N21">
-        <v>1.010403938560023</v>
+        <v>1.016329526121684</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9868681138635732</v>
+        <v>1.029917519824822</v>
       </c>
       <c r="D22">
-        <v>1.010814874266631</v>
+        <v>1.03928760761669</v>
       </c>
       <c r="E22">
-        <v>0.9977747051315111</v>
+        <v>1.033829163479711</v>
       </c>
       <c r="F22">
-        <v>1.00776304882732</v>
+        <v>1.045407676124425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039213197281102</v>
+        <v>1.037041531076968</v>
       </c>
       <c r="J22">
-        <v>1.018195698352669</v>
+        <v>1.036793053036208</v>
       </c>
       <c r="K22">
-        <v>1.026175088318568</v>
+        <v>1.042984065198702</v>
       </c>
       <c r="L22">
-        <v>1.01339037482046</v>
+        <v>1.03754669168814</v>
       </c>
       <c r="M22">
-        <v>1.023182271084276</v>
+        <v>1.049080799149503</v>
       </c>
       <c r="N22">
-        <v>1.009802363710676</v>
+        <v>1.016211509588574</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9885625778207389</v>
+        <v>1.03023605760594</v>
       </c>
       <c r="D23">
-        <v>1.012109432209879</v>
+        <v>1.039543739341332</v>
       </c>
       <c r="E23">
-        <v>0.999236739651276</v>
+        <v>1.034126859387888</v>
       </c>
       <c r="F23">
-        <v>1.009337543546967</v>
+        <v>1.045729083930684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039719950769579</v>
+        <v>1.037118039146112</v>
       </c>
       <c r="J23">
-        <v>1.019141024549804</v>
+        <v>1.036979115466887</v>
       </c>
       <c r="K23">
-        <v>1.027137410046205</v>
+        <v>1.043171194039256</v>
       </c>
       <c r="L23">
-        <v>1.014510169586511</v>
+        <v>1.0377748016567</v>
       </c>
       <c r="M23">
-        <v>1.024417683631231</v>
+        <v>1.049333431871842</v>
       </c>
       <c r="N23">
-        <v>1.010122538218512</v>
+        <v>1.016274076213344</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9950935312389443</v>
+        <v>1.031491651982865</v>
       </c>
       <c r="D24">
-        <v>1.017109680380628</v>
+        <v>1.040553492762581</v>
       </c>
       <c r="E24">
-        <v>1.004886967601589</v>
+        <v>1.035301168474275</v>
       </c>
       <c r="F24">
-        <v>1.015421541414681</v>
+        <v>1.046996883579192</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041657298829352</v>
+        <v>1.037417339179815</v>
       </c>
       <c r="J24">
-        <v>1.02278176866399</v>
+        <v>1.037711678524889</v>
       </c>
       <c r="K24">
-        <v>1.030842848496055</v>
+        <v>1.043907740574563</v>
       </c>
       <c r="L24">
-        <v>1.018828802712067</v>
+        <v>1.038673670404952</v>
       </c>
       <c r="M24">
-        <v>1.029183143824687</v>
+        <v>1.050329012916652</v>
       </c>
       <c r="N24">
-        <v>1.011355447647212</v>
+        <v>1.016520307641712</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002402141437797</v>
+        <v>1.032951833708251</v>
       </c>
       <c r="D25">
-        <v>1.022724940911561</v>
+        <v>1.04172806259155</v>
       </c>
       <c r="E25">
-        <v>1.011239208249479</v>
+        <v>1.036668602378271</v>
       </c>
       <c r="F25">
-        <v>1.022259831007736</v>
+        <v>1.048473093268761</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043791581235141</v>
+        <v>1.037760688740197</v>
       </c>
       <c r="J25">
-        <v>1.026848933494301</v>
+        <v>1.038561840951789</v>
       </c>
       <c r="K25">
-        <v>1.034980434294954</v>
+        <v>1.044762077465112</v>
       </c>
       <c r="L25">
-        <v>1.023665519890605</v>
+        <v>1.039718404391269</v>
       </c>
       <c r="M25">
-        <v>1.034522146927753</v>
+        <v>1.051486320099594</v>
       </c>
       <c r="N25">
-        <v>1.012732267727586</v>
+        <v>1.016805847055712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034118942127875</v>
+        <v>1.008031659287967</v>
       </c>
       <c r="D2">
-        <v>1.042667095732968</v>
+        <v>1.027063892481649</v>
       </c>
       <c r="E2">
-        <v>1.037762998858533</v>
+        <v>1.016153958308458</v>
       </c>
       <c r="F2">
-        <v>1.049654476318514</v>
+        <v>1.027549459150573</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038031315657763</v>
+        <v>1.04540715306078</v>
       </c>
       <c r="J2">
-        <v>1.039239935007143</v>
+        <v>1.029974770136463</v>
       </c>
       <c r="K2">
-        <v>1.045443136622966</v>
+        <v>1.038158633211191</v>
       </c>
       <c r="L2">
-        <v>1.040552956283314</v>
+        <v>1.02739273827857</v>
       </c>
       <c r="M2">
-        <v>1.052410932474179</v>
+        <v>1.038637878180988</v>
       </c>
       <c r="N2">
-        <v>1.017033415535137</v>
+        <v>1.013789915469889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034967773080063</v>
+        <v>1.012011545302869</v>
       </c>
       <c r="D3">
-        <v>1.043350161576656</v>
+        <v>1.030138442123403</v>
       </c>
       <c r="E3">
-        <v>1.038559762122487</v>
+        <v>1.019640499345758</v>
       </c>
       <c r="F3">
-        <v>1.0505145301547</v>
+        <v>1.031301312286722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038225930447641</v>
+        <v>1.046532239715487</v>
       </c>
       <c r="J3">
-        <v>1.039732273808831</v>
+        <v>1.032180034477495</v>
       </c>
       <c r="K3">
-        <v>1.045937415447781</v>
+        <v>1.040399688812868</v>
       </c>
       <c r="L3">
-        <v>1.041159628757937</v>
+        <v>1.030028095635988</v>
       </c>
       <c r="M3">
-        <v>1.053083152467352</v>
+        <v>1.041548759169252</v>
       </c>
       <c r="N3">
-        <v>1.017198539542205</v>
+        <v>1.014535726646795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035517665633477</v>
+        <v>1.014539516279546</v>
       </c>
       <c r="D4">
-        <v>1.043792716427896</v>
+        <v>1.032094338314383</v>
       </c>
       <c r="E4">
-        <v>1.039076298368313</v>
+        <v>1.021860434134649</v>
       </c>
       <c r="F4">
-        <v>1.051072079674523</v>
+        <v>1.033689902546739</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038350983187015</v>
+        <v>1.047238769212391</v>
       </c>
       <c r="J4">
-        <v>1.040050834643711</v>
+        <v>1.033578472932705</v>
       </c>
       <c r="K4">
-        <v>1.046257132576244</v>
+        <v>1.041820249492152</v>
       </c>
       <c r="L4">
-        <v>1.041552508235686</v>
+        <v>1.031701992270196</v>
       </c>
       <c r="M4">
-        <v>1.053518516804482</v>
+        <v>1.043398037120837</v>
       </c>
       <c r="N4">
-        <v>1.017305331768859</v>
+        <v>1.015008489502344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035748992651512</v>
+        <v>1.015591311212587</v>
       </c>
       <c r="D5">
-        <v>1.043978900157349</v>
+        <v>1.032908789727645</v>
       </c>
       <c r="E5">
-        <v>1.039293682349011</v>
+        <v>1.022785315642699</v>
       </c>
       <c r="F5">
-        <v>1.051306719933628</v>
+        <v>1.034684987358476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038403344947149</v>
+        <v>1.047530753051424</v>
       </c>
       <c r="J5">
-        <v>1.040184752745681</v>
+        <v>1.034159728428823</v>
       </c>
       <c r="K5">
-        <v>1.046391512996601</v>
+        <v>1.042410556062576</v>
       </c>
       <c r="L5">
-        <v>1.04171775037355</v>
+        <v>1.032398398028224</v>
       </c>
       <c r="M5">
-        <v>1.053701636496177</v>
+        <v>1.044167498432914</v>
       </c>
       <c r="N5">
-        <v>1.017350213823189</v>
+        <v>1.015204944765334</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035787842355229</v>
+        <v>1.01576727931427</v>
       </c>
       <c r="D6">
-        <v>1.04401016901294</v>
+        <v>1.033045088188736</v>
       </c>
       <c r="E6">
-        <v>1.039330195636981</v>
+        <v>1.022940123355207</v>
       </c>
       <c r="F6">
-        <v>1.051346131462922</v>
+        <v>1.034851542159517</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038412124358576</v>
+        <v>1.047579485644325</v>
       </c>
       <c r="J6">
-        <v>1.040207237863293</v>
+        <v>1.034256938989715</v>
       </c>
       <c r="K6">
-        <v>1.046414074342293</v>
+        <v>1.042509271708456</v>
       </c>
       <c r="L6">
-        <v>1.041745499647319</v>
+        <v>1.032514905357002</v>
       </c>
       <c r="M6">
-        <v>1.053732388478144</v>
+        <v>1.044296233102586</v>
       </c>
       <c r="N6">
-        <v>1.017357748918613</v>
+        <v>1.015237797581956</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035520756040347</v>
+        <v>1.014553613036267</v>
       </c>
       <c r="D7">
-        <v>1.043795203700942</v>
+        <v>1.03210525144214</v>
       </c>
       <c r="E7">
-        <v>1.039079202153779</v>
+        <v>1.021872825031963</v>
       </c>
       <c r="F7">
-        <v>1.051075213983138</v>
+        <v>1.03370323422214</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038351683675043</v>
+        <v>1.047242690392694</v>
       </c>
       <c r="J7">
-        <v>1.040052624084608</v>
+        <v>1.033586265587762</v>
       </c>
       <c r="K7">
-        <v>1.046258928288231</v>
+        <v>1.041828164067891</v>
       </c>
       <c r="L7">
-        <v>1.041554715913945</v>
+        <v>1.031711326095984</v>
       </c>
       <c r="M7">
-        <v>1.053520963297178</v>
+        <v>1.043408349744174</v>
       </c>
       <c r="N7">
-        <v>1.017305931538285</v>
+        <v>1.015011123486326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03440567462568</v>
+        <v>1.00938668916347</v>
       </c>
       <c r="D8">
-        <v>1.042897822887037</v>
+        <v>1.028110033419269</v>
       </c>
       <c r="E8">
-        <v>1.038032065337998</v>
+        <v>1.017339884577293</v>
       </c>
       <c r="F8">
-        <v>1.049944919665201</v>
+        <v>1.028825688390125</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038097267615288</v>
+        <v>1.045791890179844</v>
       </c>
       <c r="J8">
-        <v>1.039406325647434</v>
+        <v>1.030726063732309</v>
       </c>
       <c r="K8">
-        <v>1.045610203360618</v>
+        <v>1.038922236852076</v>
       </c>
       <c r="L8">
-        <v>1.040757916586355</v>
+        <v>1.028289989056913</v>
       </c>
       <c r="M8">
-        <v>1.052638030038249</v>
+        <v>1.039628856232053</v>
       </c>
       <c r="N8">
-        <v>1.017089230881571</v>
+        <v>1.014044036498148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03244574548607</v>
+        <v>0.9999030319160829</v>
       </c>
       <c r="D9">
-        <v>1.041320931353256</v>
+        <v>1.020802561304215</v>
       </c>
       <c r="E9">
-        <v>1.036194439151291</v>
+        <v>1.009063573221827</v>
       </c>
       <c r="F9">
-        <v>1.047961222573483</v>
+        <v>1.019917917848363</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037642274927668</v>
+        <v>1.043066165295035</v>
       </c>
       <c r="J9">
-        <v>1.038267401740821</v>
+        <v>1.025459214840977</v>
       </c>
       <c r="K9">
-        <v>1.044466248711484</v>
+        <v>1.033566912560483</v>
       </c>
       <c r="L9">
-        <v>1.039356382773918</v>
+        <v>1.02201129211325</v>
       </c>
       <c r="M9">
-        <v>1.051085268730924</v>
+        <v>1.032695899811121</v>
       </c>
       <c r="N9">
-        <v>1.016706982974779</v>
+        <v>1.012261891986579</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031142571043527</v>
+        <v>0.9933011499565942</v>
       </c>
       <c r="D10">
-        <v>1.040272737300312</v>
+        <v>1.015735723588045</v>
       </c>
       <c r="E10">
-        <v>1.034974546255615</v>
+        <v>1.003333881321182</v>
       </c>
       <c r="F10">
-        <v>1.046644265080617</v>
+        <v>1.013749358601974</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037334496761056</v>
+        <v>1.04112823728447</v>
       </c>
       <c r="J10">
-        <v>1.037508148713909</v>
+        <v>1.021783092479574</v>
       </c>
       <c r="K10">
-        <v>1.04370313902838</v>
+        <v>1.029826560467179</v>
       </c>
       <c r="L10">
-        <v>1.038423812660725</v>
+        <v>1.017643201285561</v>
       </c>
       <c r="M10">
-        <v>1.050052259110918</v>
+        <v>1.027874723719912</v>
       </c>
       <c r="N10">
-        <v>1.016451913689437</v>
+        <v>1.011017287494054</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030579118572025</v>
+        <v>0.9903702751342557</v>
       </c>
       <c r="D11">
-        <v>1.039819606944622</v>
+        <v>1.013491762721133</v>
       </c>
       <c r="E11">
-        <v>1.034447572937978</v>
+        <v>1.000798245247379</v>
       </c>
       <c r="F11">
-        <v>1.046075337624571</v>
+        <v>1.01101906123486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037200178621017</v>
+        <v>1.040258773071028</v>
       </c>
       <c r="J11">
-        <v>1.037179406007642</v>
+        <v>1.020149222614163</v>
       </c>
       <c r="K11">
-        <v>1.043372608099101</v>
+        <v>1.02816365176517</v>
       </c>
       <c r="L11">
-        <v>1.038020441155865</v>
+        <v>1.015705123516582</v>
       </c>
       <c r="M11">
-        <v>1.049605487738656</v>
+        <v>1.025736123601557</v>
       </c>
       <c r="N11">
-        <v>1.01634141533729</v>
+        <v>1.010463988152232</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030369953580694</v>
+        <v>0.9892702301568643</v>
       </c>
       <c r="D12">
-        <v>1.039651407783764</v>
+        <v>1.012650413039512</v>
       </c>
       <c r="E12">
-        <v>1.034252020955851</v>
+        <v>0.9998477978926451</v>
       </c>
       <c r="F12">
-        <v>1.045864213421534</v>
+        <v>1.0099955779207</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037150130087729</v>
+        <v>1.039931106437394</v>
       </c>
       <c r="J12">
-        <v>1.037057300383811</v>
+        <v>1.019535738801794</v>
       </c>
       <c r="K12">
-        <v>1.043249820563714</v>
+        <v>1.027539199037042</v>
       </c>
       <c r="L12">
-        <v>1.03787067820606</v>
+        <v>1.014977914435631</v>
       </c>
       <c r="M12">
-        <v>1.049439617969828</v>
+        <v>1.024933751642627</v>
       </c>
       <c r="N12">
-        <v>1.016300364029039</v>
+        <v>1.01025621993195</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030414814439139</v>
+        <v>0.9895067178496599</v>
       </c>
       <c r="D13">
-        <v>1.039687481904488</v>
+        <v>1.012831245856031</v>
       </c>
       <c r="E13">
-        <v>1.03429395892115</v>
+        <v>1.000052067720357</v>
       </c>
       <c r="F13">
-        <v>1.04590949116335</v>
+        <v>1.010215547825965</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037160872752417</v>
+        <v>1.040001607678015</v>
       </c>
       <c r="J13">
-        <v>1.03708349225154</v>
+        <v>1.019667635951409</v>
       </c>
       <c r="K13">
-        <v>1.043276159502794</v>
+        <v>1.02767345728877</v>
       </c>
       <c r="L13">
-        <v>1.03790279980342</v>
+        <v>1.015134239703766</v>
       </c>
       <c r="M13">
-        <v>1.049475193906769</v>
+        <v>1.025106230853574</v>
       </c>
       <c r="N13">
-        <v>1.016309169996946</v>
+        <v>1.010300890130558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030561826342244</v>
+        <v>0.9902795806022118</v>
       </c>
       <c r="D14">
-        <v>1.039805701221327</v>
+        <v>1.01342237847428</v>
       </c>
       <c r="E14">
-        <v>1.034431404676484</v>
+        <v>1.000719858728246</v>
       </c>
       <c r="F14">
-        <v>1.046057881925156</v>
+        <v>1.010934652641454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037196044788288</v>
+        <v>1.040231785018355</v>
       </c>
       <c r="J14">
-        <v>1.037169312628911</v>
+        <v>1.020098647933488</v>
       </c>
       <c r="K14">
-        <v>1.043362458713661</v>
+        <v>1.028112174104543</v>
       </c>
       <c r="L14">
-        <v>1.03800806032469</v>
+        <v>1.015645163382245</v>
       </c>
       <c r="M14">
-        <v>1.049591775229993</v>
+        <v>1.025669964523587</v>
       </c>
       <c r="N14">
-        <v>1.016338022169595</v>
+        <v>1.010446860357461</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030652422015943</v>
+        <v>0.9907542412463476</v>
       </c>
       <c r="D15">
-        <v>1.039878555153814</v>
+        <v>1.013785545280451</v>
       </c>
       <c r="E15">
-        <v>1.034516114690638</v>
+        <v>1.001130155284683</v>
       </c>
       <c r="F15">
-        <v>1.046149337033772</v>
+        <v>1.011376467514756</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037217694683831</v>
+        <v>1.040372976187188</v>
       </c>
       <c r="J15">
-        <v>1.037222189969627</v>
+        <v>1.02036332684735</v>
       </c>
       <c r="K15">
-        <v>1.043415628738398</v>
+        <v>1.028381576080702</v>
       </c>
       <c r="L15">
-        <v>1.038072923752418</v>
+        <v>1.015958980688287</v>
       </c>
       <c r="M15">
-        <v>1.049663615613376</v>
+        <v>1.026016228818042</v>
       </c>
       <c r="N15">
-        <v>1.016355797991867</v>
+        <v>1.010536496796558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031179983161396</v>
+        <v>0.9934940957781885</v>
       </c>
       <c r="D16">
-        <v>1.040302825907776</v>
+        <v>1.015883566745627</v>
       </c>
       <c r="E16">
-        <v>1.035009546195955</v>
+        <v>1.003500979126081</v>
       </c>
       <c r="F16">
-        <v>1.046682050975472</v>
+        <v>1.013929274997774</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03734338898797</v>
+        <v>1.041185288969997</v>
       </c>
       <c r="J16">
-        <v>1.037529966786237</v>
+        <v>1.021890617760698</v>
       </c>
       <c r="K16">
-        <v>1.043725073294478</v>
+        <v>1.029935987252619</v>
       </c>
       <c r="L16">
-        <v>1.038450592441141</v>
+        <v>1.017770815906367</v>
       </c>
       <c r="M16">
-        <v>1.050081921128703</v>
+        <v>1.028015552616301</v>
       </c>
       <c r="N16">
-        <v>1.016459246052019</v>
+        <v>1.011053697826837</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03151113181228</v>
+        <v>0.9951930301733383</v>
       </c>
       <c r="D17">
-        <v>1.040569160334534</v>
+        <v>1.017185988310691</v>
       </c>
       <c r="E17">
-        <v>1.035319398248218</v>
+        <v>1.004973236864709</v>
       </c>
       <c r="F17">
-        <v>1.047016564121236</v>
+        <v>1.015514423138328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037421953559849</v>
+        <v>1.041686606719969</v>
       </c>
       <c r="J17">
-        <v>1.037723032963719</v>
+        <v>1.022837194733535</v>
       </c>
       <c r="K17">
-        <v>1.043919153995877</v>
+        <v>1.030899248710313</v>
       </c>
       <c r="L17">
-        <v>1.038687612193088</v>
+        <v>1.018894625523565</v>
       </c>
       <c r="M17">
-        <v>1.050344455775576</v>
+        <v>1.029255788759242</v>
       </c>
       <c r="N17">
-        <v>1.016524122780375</v>
+        <v>1.011374214514215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031704365260607</v>
+        <v>0.9961770600387662</v>
       </c>
       <c r="D18">
-        <v>1.040724580423223</v>
+        <v>1.017940869237517</v>
       </c>
       <c r="E18">
-        <v>1.035500250034234</v>
+        <v>1.005826735257905</v>
       </c>
       <c r="F18">
-        <v>1.047211807582789</v>
+        <v>1.016433324418952</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037467677767238</v>
+        <v>1.041976101371765</v>
       </c>
       <c r="J18">
-        <v>1.0378356469369</v>
+        <v>1.02338527550151</v>
       </c>
       <c r="K18">
-        <v>1.044032348307292</v>
+        <v>1.031456942744652</v>
       </c>
       <c r="L18">
-        <v>1.03882590391982</v>
+        <v>1.019545643955533</v>
       </c>
       <c r="M18">
-        <v>1.050497638689632</v>
+        <v>1.029974300730733</v>
       </c>
       <c r="N18">
-        <v>1.016561959262155</v>
+        <v>1.011559785491268</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031770266402547</v>
+        <v>0.9965114291770898</v>
       </c>
       <c r="D19">
-        <v>1.040777586768959</v>
+        <v>1.01819745983535</v>
       </c>
       <c r="E19">
-        <v>1.035561936173676</v>
+        <v>1.006116878046217</v>
       </c>
       <c r="F19">
-        <v>1.047278402143695</v>
+        <v>1.016745693582527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037483251358136</v>
+        <v>1.042074321525499</v>
       </c>
       <c r="J19">
-        <v>1.037874045649278</v>
+        <v>1.023571479271595</v>
       </c>
       <c r="K19">
-        <v>1.044070942961091</v>
+        <v>1.031646404239728</v>
       </c>
       <c r="L19">
-        <v>1.038873064924069</v>
+        <v>1.019766873521952</v>
       </c>
       <c r="M19">
-        <v>1.050549878689146</v>
+        <v>1.030218474127361</v>
       </c>
       <c r="N19">
-        <v>1.016574859659751</v>
+        <v>1.011622828752097</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031475594405627</v>
+        <v>0.9950114711591291</v>
       </c>
       <c r="D20">
-        <v>1.040540577739677</v>
+        <v>1.017046749586133</v>
       </c>
       <c r="E20">
-        <v>1.035286141596384</v>
+        <v>1.004815822766924</v>
       </c>
       <c r="F20">
-        <v>1.04698066081423</v>
+        <v>1.015344943156052</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037413534785252</v>
+        <v>1.041633122707507</v>
       </c>
       <c r="J20">
-        <v>1.037702318601431</v>
+        <v>1.022736055915025</v>
       </c>
       <c r="K20">
-        <v>1.043898331965034</v>
+        <v>1.030796332050944</v>
       </c>
       <c r="L20">
-        <v>1.038662177850124</v>
+        <v>1.018774517028685</v>
       </c>
       <c r="M20">
-        <v>1.05031628301663</v>
+        <v>1.029123232041413</v>
       </c>
       <c r="N20">
-        <v>1.016517162636927</v>
+        <v>1.01133996956933</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030518531500792</v>
+        <v>0.99005231062253</v>
       </c>
       <c r="D21">
-        <v>1.03977088542819</v>
+        <v>1.013248523917726</v>
       </c>
       <c r="E21">
-        <v>1.034390925085086</v>
+        <v>1.000523451546621</v>
       </c>
       <c r="F21">
-        <v>1.046014178986457</v>
+        <v>1.010723155264733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037185691823225</v>
+        <v>1.04016413478723</v>
       </c>
       <c r="J21">
-        <v>1.037144040545062</v>
+        <v>1.019971909854537</v>
       </c>
       <c r="K21">
-        <v>1.043337046112841</v>
+        <v>1.027983172169563</v>
       </c>
       <c r="L21">
-        <v>1.037977061858329</v>
+        <v>1.015494913759749</v>
       </c>
       <c r="M21">
-        <v>1.049557442686905</v>
+        <v>1.025504182684673</v>
       </c>
       <c r="N21">
-        <v>1.016329526121684</v>
+        <v>1.010403938560023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029917519824822</v>
+        <v>0.9868681138635731</v>
       </c>
       <c r="D22">
-        <v>1.03928760761669</v>
+        <v>1.010814874266631</v>
       </c>
       <c r="E22">
-        <v>1.033829163479711</v>
+        <v>0.997774705131511</v>
       </c>
       <c r="F22">
-        <v>1.045407676124425</v>
+        <v>1.00776304882732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037041531076968</v>
+        <v>1.039213197281102</v>
       </c>
       <c r="J22">
-        <v>1.036793053036208</v>
+        <v>1.018195698352669</v>
       </c>
       <c r="K22">
-        <v>1.042984065198702</v>
+        <v>1.026175088318568</v>
       </c>
       <c r="L22">
-        <v>1.03754669168814</v>
+        <v>1.01339037482046</v>
       </c>
       <c r="M22">
-        <v>1.049080799149503</v>
+        <v>1.023182271084276</v>
       </c>
       <c r="N22">
-        <v>1.016211509588574</v>
+        <v>1.009802363710676</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03023605760594</v>
+        <v>0.9885625778207391</v>
       </c>
       <c r="D23">
-        <v>1.039543739341332</v>
+        <v>1.012109432209879</v>
       </c>
       <c r="E23">
-        <v>1.034126859387888</v>
+        <v>0.9992367396512765</v>
       </c>
       <c r="F23">
-        <v>1.045729083930684</v>
+        <v>1.009337543546966</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037118039146112</v>
+        <v>1.039719950769579</v>
       </c>
       <c r="J23">
-        <v>1.036979115466887</v>
+        <v>1.019141024549804</v>
       </c>
       <c r="K23">
-        <v>1.043171194039256</v>
+        <v>1.027137410046205</v>
       </c>
       <c r="L23">
-        <v>1.0377748016567</v>
+        <v>1.014510169586512</v>
       </c>
       <c r="M23">
-        <v>1.049333431871842</v>
+        <v>1.024417683631231</v>
       </c>
       <c r="N23">
-        <v>1.016274076213344</v>
+        <v>1.010122538218512</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031491651982865</v>
+        <v>0.9950935312389448</v>
       </c>
       <c r="D24">
-        <v>1.040553492762581</v>
+        <v>1.017109680380629</v>
       </c>
       <c r="E24">
-        <v>1.035301168474275</v>
+        <v>1.00488696760159</v>
       </c>
       <c r="F24">
-        <v>1.046996883579192</v>
+        <v>1.015421541414682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037417339179815</v>
+        <v>1.041657298829352</v>
       </c>
       <c r="J24">
-        <v>1.037711678524889</v>
+        <v>1.022781768663991</v>
       </c>
       <c r="K24">
-        <v>1.043907740574563</v>
+        <v>1.030842848496056</v>
       </c>
       <c r="L24">
-        <v>1.038673670404952</v>
+        <v>1.018828802712068</v>
       </c>
       <c r="M24">
-        <v>1.050329012916652</v>
+        <v>1.029183143824687</v>
       </c>
       <c r="N24">
-        <v>1.016520307641712</v>
+        <v>1.011355447647212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032951833708251</v>
+        <v>1.002402141437796</v>
       </c>
       <c r="D25">
-        <v>1.04172806259155</v>
+        <v>1.022724940911561</v>
       </c>
       <c r="E25">
-        <v>1.036668602378271</v>
+        <v>1.011239208249479</v>
       </c>
       <c r="F25">
-        <v>1.048473093268761</v>
+        <v>1.022259831007736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037760688740197</v>
+        <v>1.043791581235141</v>
       </c>
       <c r="J25">
-        <v>1.038561840951789</v>
+        <v>1.0268489334943</v>
       </c>
       <c r="K25">
-        <v>1.044762077465112</v>
+        <v>1.034980434294953</v>
       </c>
       <c r="L25">
-        <v>1.039718404391269</v>
+        <v>1.023665519890605</v>
       </c>
       <c r="M25">
-        <v>1.051486320099594</v>
+        <v>1.034522146927753</v>
       </c>
       <c r="N25">
-        <v>1.016805847055712</v>
+        <v>1.012732267727585</v>
       </c>
     </row>
   </sheetData>
